--- a/biology/Botanique/Jules_Allemand/Jules_Allemand.xlsx
+++ b/biology/Botanique/Jules_Allemand/Jules_Allemand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Allemand, décédé en décembre 1916 à Genève, est un architecte paysagiste suisse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Allemand est le fils de jardinier. Il étudie à Paris où il est l'élève du paysagiste Édouard André. Il retourne à Samoëns et y développe son commerce de jardinerie. Il y rencontre Henry Correvon avec qui il collabore sur de nombreux projets, dont la création du jardin alpin au Village suisse de l'exposition nationale de 1896 à Genève, ce qui le mène à entreprendre le même projet pour l'exposition universelle de 1900 à Paris[1].
-En 1903, Marie-Louise Jaÿ le sollicite pour la conception du jardin botanique alpin La Jaÿsinia à Samoëns, un projet qui mobilise 250 employés sur trois ans (et un budget estimé à 1 million de francs)[1]. Selon Jean-Jacques Rousseau dans ses Confessions, le parc était le souhait initial de Mme de Warens[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Allemand est le fils de jardinier. Il étudie à Paris où il est l'élève du paysagiste Édouard André. Il retourne à Samoëns et y développe son commerce de jardinerie. Il y rencontre Henry Correvon avec qui il collabore sur de nombreux projets, dont la création du jardin alpin au Village suisse de l'exposition nationale de 1896 à Genève, ce qui le mène à entreprendre le même projet pour l'exposition universelle de 1900 à Paris.
+En 1903, Marie-Louise Jaÿ le sollicite pour la conception du jardin botanique alpin La Jaÿsinia à Samoëns, un projet qui mobilise 250 employés sur trois ans (et un budget estimé à 1 million de francs). Selon Jean-Jacques Rousseau dans ses Confessions, le parc était le souhait initial de Mme de Warens.
 </t>
         </is>
       </c>
@@ -543,19 +557,21 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jules Allemand est l'auteur, seul ou en collaboration avec d'autres architectes paysagistes comme Henry Correvon ou Charles Henneberg, de plusieurs projets publics et privés, parmi lesquels :
-Jardin anglais à Genève (1895)[3]
-Jardin alpin du Village suisse de l'Exposition nationale de Genève en 1896[4]
-Village Suisse de l’exposition universelle de 1900 à Paris[5]
-Rocailles du jardin botanique de Genève dans le parc de l'Ariana (1904)[6]
-Jardin botanique alpin La Jaÿsinia à Samoëns (1905-1906)[1]
-Parc du domaine impérial de Gland de la famille Bonaparte[7]
-Jardin alpin du baron de Rothschild au Château de Pregny [8]
-Parc de la propriété d'Edmond Rostand dans les Pyrénées[1]
-Jardin Roussy à La Tour-de-Peilz[9]
-Parc des Eaux-Vives pour la Société des Hôtels de Genève[10] (jardin de l'Hôtel Métropole[11])</t>
+Jardin anglais à Genève (1895)
+Jardin alpin du Village suisse de l'Exposition nationale de Genève en 1896
+Village Suisse de l’exposition universelle de 1900 à Paris
+Rocailles du jardin botanique de Genève dans le parc de l'Ariana (1904)
+Jardin botanique alpin La Jaÿsinia à Samoëns (1905-1906)
+Parc du domaine impérial de Gland de la famille Bonaparte
+Jardin alpin du baron de Rothschild au Château de Pregny 
+Parc de la propriété d'Edmond Rostand dans les Pyrénées
+Jardin Roussy à La Tour-de-Peilz
+Parc des Eaux-Vives pour la Société des Hôtels de Genève (jardin de l'Hôtel Métropole)</t>
         </is>
       </c>
     </row>
@@ -583,7 +599,9 @@
           <t>Autres fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Membre actif de la Société botanique de Genève</t>
         </is>
@@ -613,10 +631,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1900 : Chevalier de la Légion d'honneur[1]
-1900 : Grande médaille d'or de l'exposition universelle[10]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1900 : Chevalier de la Légion d'honneur
+1900 : Grande médaille d'or de l'exposition universelle</t>
         </is>
       </c>
     </row>
